--- a/02-intermediate/155-hands-on-01.xlsx
+++ b/02-intermediate/155-hands-on-01.xlsx
@@ -226,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +406,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -567,7 +573,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -587,6 +593,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -954,7 +963,7 @@
   </sheetPr>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="59" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="68" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="59" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -4113,8 +4122,11 @@
   </sheetPr>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="58" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="58" workbookViewId="0">
+      <pane xSplit="6233" ySplit="3135" topLeftCell="F34" activePane="topRight"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4206,7 +4218,7 @@
       <c r="F2" s="2">
         <v>8500</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="9">
         <v>13090</v>
       </c>
       <c r="H2" s="1">
@@ -7215,7 +7227,7 @@
       <c r="F53" s="1">
         <v>12320</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="9">
         <v>20944</v>
       </c>
       <c r="H53" s="1">
